--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction2-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction2-conceptmap.xlsx
@@ -28,12 +28,13 @@
     <sheet name="Mapping Table 18" r:id="rId22" sheetId="20"/>
     <sheet name="Mapping Table 19" r:id="rId23" sheetId="21"/>
     <sheet name="Mapping Table 20" r:id="rId24" sheetId="22"/>
+    <sheet name="Mapping Table 21" r:id="rId25" sheetId="23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="77">
   <si>
     <t>Property</t>
   </si>
@@ -77,7 +78,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -249,6 +250,21 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.maxDosePerLifetime.numerator.unit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.unit</t>
   </si>
 </sst>
 </file>
@@ -1949,6 +1965,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
